--- a/other files/Conceptual Framework.xlsx
+++ b/other files/Conceptual Framework.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMHerrera\Desktop\Axion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMHerrera\Desktop\Axion\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Input</t>
   </si>
@@ -38,30 +38,12 @@
     <t>Hardware Requirements</t>
   </si>
   <si>
-    <t>Cross-platform</t>
-  </si>
-  <si>
     <t>Software Requirements</t>
   </si>
   <si>
-    <t>Network Requirements</t>
-  </si>
-  <si>
-    <t>Requires a stable internet connection</t>
-  </si>
-  <si>
     <t>Computer</t>
   </si>
   <si>
-    <t>Visual Studio Code</t>
-  </si>
-  <si>
-    <t>SvelteKit</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
     <t>Canva</t>
   </si>
   <si>
@@ -71,15 +53,9 @@
     <t>Database</t>
   </si>
   <si>
-    <t xml:space="preserve">MongoDB </t>
-  </si>
-  <si>
     <t>Knowledge Requirements</t>
   </si>
   <si>
-    <t>JSON</t>
-  </si>
-  <si>
     <t>Computer and Smartphones</t>
   </si>
   <si>
@@ -89,31 +65,83 @@
     <t>SvelteKit + MongoDB</t>
   </si>
   <si>
-    <t>Bootstrap 5</t>
-  </si>
-  <si>
-    <t>NoSQL Database concept</t>
-  </si>
-  <si>
     <t>CSS Framework</t>
   </si>
   <si>
-    <t>SvelteKit Component based</t>
-  </si>
-  <si>
     <t>HTML and Javascript Framework</t>
   </si>
   <si>
-    <t>AGILE LEAN SDLC</t>
-  </si>
-  <si>
-    <t>Axion: A Web-Based Task Management Tool for Students</t>
-  </si>
-  <si>
     <t>Smartphones</t>
   </si>
   <si>
     <t>Platform Requirements</t>
+  </si>
+  <si>
+    <t>Netlify</t>
+  </si>
+  <si>
+    <t>SvelteKit v3.44.0/'next'</t>
+  </si>
+  <si>
+    <t>Git v2.34.1</t>
+  </si>
+  <si>
+    <t>Tailwind CSS v2.0</t>
+  </si>
+  <si>
+    <t>Node.js v16.13.0</t>
+  </si>
+  <si>
+    <t>JSON concept</t>
+  </si>
+  <si>
+    <t>Svelte Core</t>
+  </si>
+  <si>
+    <t>VS Code v1.63</t>
+  </si>
+  <si>
+    <t>SelteKit Core</t>
+  </si>
+  <si>
+    <t>Node.js as Server</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Tailwind CSS v2.0 Core</t>
+  </si>
+  <si>
+    <t>MongoDB Environment</t>
+  </si>
+  <si>
+    <t>Netlify Free hosting</t>
+  </si>
+  <si>
+    <t>Mobile data</t>
+  </si>
+  <si>
+    <t>1.5 Mbps</t>
+  </si>
+  <si>
+    <t>Ethernet/ Wi-Fi</t>
+  </si>
+  <si>
+    <t>3 Mbps</t>
+  </si>
+  <si>
+    <t>Network (minimum) Requirements</t>
+  </si>
+  <si>
+    <t>Internet browser with ES6 2018 compatability</t>
+  </si>
+  <si>
+    <t>Development and Evaluation of Axion:
+A Web-Based Academic Task Management Tool for College Students</t>
+  </si>
+  <si>
+    <t>AGILE SDLC</t>
   </si>
 </sst>
 </file>
@@ -163,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -284,12 +312,58 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -297,6 +371,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -307,8 +396,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -318,126 +411,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -451,61 +437,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,59 +475,101 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,242 +851,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="21" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="44"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="44"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="43"/>
+      <c r="C23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D2:D20"/>
-    <mergeCell ref="E2:E20"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D2:D23"/>
+    <mergeCell ref="E2:E23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
